--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.28799666666667</v>
+        <v>90.85644533333333</v>
       </c>
       <c r="H2">
-        <v>207.86399</v>
+        <v>272.569336</v>
       </c>
       <c r="I2">
-        <v>0.61797593386996</v>
+        <v>0.6604153190201066</v>
       </c>
       <c r="J2">
-        <v>0.61797593386996</v>
+        <v>0.6604153190201065</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.454560333333333</v>
+        <v>3.342152</v>
       </c>
       <c r="N2">
-        <v>4.363681</v>
+        <v>10.026456</v>
       </c>
       <c r="O2">
-        <v>0.6945830183684797</v>
+        <v>0.7998676999536424</v>
       </c>
       <c r="P2">
-        <v>0.6945830183684797</v>
+        <v>0.7998676999536425</v>
       </c>
       <c r="Q2">
-        <v>100.7835715274656</v>
+        <v>303.6560504836906</v>
       </c>
       <c r="R2">
-        <v>907.0521437471899</v>
+        <v>2732.904454353215</v>
       </c>
       <c r="S2">
-        <v>0.4292355894264768</v>
+        <v>0.5282448822387636</v>
       </c>
       <c r="T2">
-        <v>0.4292355894264768</v>
+        <v>0.5282448822387636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.28799666666667</v>
+        <v>90.85644533333333</v>
       </c>
       <c r="H3">
-        <v>207.86399</v>
+        <v>272.569336</v>
       </c>
       <c r="I3">
-        <v>0.61797593386996</v>
+        <v>0.6604153190201066</v>
       </c>
       <c r="J3">
-        <v>0.61797593386996</v>
+        <v>0.6604153190201065</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.4565946666666667</v>
+        <v>0.4565946666666666</v>
       </c>
       <c r="N3">
         <v>1.369784</v>
       </c>
       <c r="O3">
-        <v>0.2180335146480345</v>
+        <v>0.1092754984925182</v>
       </c>
       <c r="P3">
-        <v>0.2180335146480345</v>
+        <v>0.1092754984925182</v>
       </c>
       <c r="Q3">
-        <v>31.63652974201778</v>
+        <v>41.48456837149155</v>
       </c>
       <c r="R3">
-        <v>284.72876767816</v>
+        <v>373.3611153434239</v>
       </c>
       <c r="S3">
-        <v>0.1347394648295687</v>
+        <v>0.07216721319801758</v>
       </c>
       <c r="T3">
-        <v>0.1347394648295687</v>
+        <v>0.07216721319801758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.28799666666667</v>
+        <v>90.85644533333333</v>
       </c>
       <c r="H4">
-        <v>207.86399</v>
+        <v>272.569336</v>
       </c>
       <c r="I4">
-        <v>0.61797593386996</v>
+        <v>0.6604153190201066</v>
       </c>
       <c r="J4">
-        <v>0.61797593386996</v>
+        <v>0.6604153190201065</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182994</v>
+        <v>0.3796343333333334</v>
       </c>
       <c r="N4">
-        <v>0.548982</v>
+        <v>1.138903</v>
       </c>
       <c r="O4">
-        <v>0.0873834669834859</v>
+        <v>0.09085680155383948</v>
       </c>
       <c r="P4">
-        <v>0.0873834669834859</v>
+        <v>0.09085680155383949</v>
       </c>
       <c r="Q4">
-        <v>12.67928766202</v>
+        <v>34.49222605315644</v>
       </c>
       <c r="R4">
-        <v>114.11358895818</v>
+        <v>310.4300344784079</v>
       </c>
       <c r="S4">
-        <v>0.05400087961391451</v>
+        <v>0.06000322358332542</v>
       </c>
       <c r="T4">
-        <v>0.05400087961391451</v>
+        <v>0.06000322358332542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.83541766666667</v>
+        <v>38.83541766666666</v>
       </c>
       <c r="H5">
         <v>116.506253</v>
       </c>
       <c r="I5">
-        <v>0.3463710116377773</v>
+        <v>0.282286024436851</v>
       </c>
       <c r="J5">
-        <v>0.3463710116377773</v>
+        <v>0.282286024436851</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.454560333333333</v>
+        <v>3.342152</v>
       </c>
       <c r="N5">
-        <v>4.363681</v>
+        <v>10.026456</v>
       </c>
       <c r="O5">
-        <v>0.6945830183684797</v>
+        <v>0.7998676999536424</v>
       </c>
       <c r="P5">
-        <v>0.6945830183684797</v>
+        <v>0.7998676999536425</v>
       </c>
       <c r="Q5">
-        <v>56.48845806636589</v>
+        <v>129.7938688254853</v>
       </c>
       <c r="R5">
-        <v>508.396122597293</v>
+        <v>1168.144819429368</v>
       </c>
       <c r="S5">
-        <v>0.2405834227387112</v>
+        <v>0.2257914730953617</v>
       </c>
       <c r="T5">
-        <v>0.2405834227387112</v>
+        <v>0.2257914730953617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.83541766666667</v>
+        <v>38.83541766666666</v>
       </c>
       <c r="H6">
         <v>116.506253</v>
       </c>
       <c r="I6">
-        <v>0.3463710116377773</v>
+        <v>0.282286024436851</v>
       </c>
       <c r="J6">
-        <v>0.3463710116377773</v>
+        <v>0.282286024436851</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.4565946666666667</v>
+        <v>0.4565946666666666</v>
       </c>
       <c r="N6">
         <v>1.369784</v>
       </c>
       <c r="O6">
-        <v>0.2180335146480345</v>
+        <v>0.1092754984925182</v>
       </c>
       <c r="P6">
-        <v>0.2180335146480345</v>
+        <v>0.1092754984925182</v>
       </c>
       <c r="Q6">
-        <v>17.73204458437245</v>
+        <v>17.73204458437244</v>
       </c>
       <c r="R6">
         <v>159.588401259352</v>
       </c>
       <c r="S6">
-        <v>0.07552048903957985</v>
+        <v>0.03084694603780807</v>
       </c>
       <c r="T6">
-        <v>0.07552048903957985</v>
+        <v>0.03084694603780807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.83541766666667</v>
+        <v>38.83541766666666</v>
       </c>
       <c r="H7">
         <v>116.506253</v>
       </c>
       <c r="I7">
-        <v>0.3463710116377773</v>
+        <v>0.282286024436851</v>
       </c>
       <c r="J7">
-        <v>0.3463710116377773</v>
+        <v>0.282286024436851</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.182994</v>
+        <v>0.3796343333333334</v>
       </c>
       <c r="N7">
-        <v>0.548982</v>
+        <v>1.138903</v>
       </c>
       <c r="O7">
-        <v>0.0873834669834859</v>
+        <v>0.09085680155383948</v>
       </c>
       <c r="P7">
-        <v>0.0873834669834859</v>
+        <v>0.09085680155383949</v>
       </c>
       <c r="Q7">
-        <v>7.106648420494</v>
+        <v>14.74325789560656</v>
       </c>
       <c r="R7">
-        <v>63.95983578444601</v>
+        <v>132.689321060459</v>
       </c>
       <c r="S7">
-        <v>0.03026709985948632</v>
+        <v>0.02564760530368125</v>
       </c>
       <c r="T7">
-        <v>0.03026709985948632</v>
+        <v>0.02564760530368126</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5517096666666667</v>
+        <v>5.478069333333333</v>
       </c>
       <c r="H8">
-        <v>1.655129</v>
+        <v>16.434208</v>
       </c>
       <c r="I8">
-        <v>0.004920668988650958</v>
+        <v>0.03981886913046884</v>
       </c>
       <c r="J8">
-        <v>0.004920668988650959</v>
+        <v>0.03981886913046883</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.454560333333333</v>
+        <v>3.342152</v>
       </c>
       <c r="N8">
-        <v>4.363681</v>
+        <v>10.026456</v>
       </c>
       <c r="O8">
-        <v>0.6945830183684797</v>
+        <v>0.7998676999536424</v>
       </c>
       <c r="P8">
-        <v>0.6945830183684797</v>
+        <v>0.7998676999536425</v>
       </c>
       <c r="Q8">
-        <v>0.8024949966498888</v>
+        <v>18.30854037853867</v>
       </c>
       <c r="R8">
-        <v>7.222454969849</v>
+        <v>164.776863406848</v>
       </c>
       <c r="S8">
-        <v>0.003417813118529357</v>
+        <v>0.0318498272661432</v>
       </c>
       <c r="T8">
-        <v>0.003417813118529358</v>
+        <v>0.0318498272661432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5517096666666667</v>
+        <v>5.478069333333333</v>
       </c>
       <c r="H9">
-        <v>1.655129</v>
+        <v>16.434208</v>
       </c>
       <c r="I9">
-        <v>0.004920668988650958</v>
+        <v>0.03981886913046884</v>
       </c>
       <c r="J9">
-        <v>0.004920668988650959</v>
+        <v>0.03981886913046883</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.4565946666666667</v>
+        <v>0.4565946666666666</v>
       </c>
       <c r="N9">
         <v>1.369784</v>
       </c>
       <c r="O9">
-        <v>0.2180335146480345</v>
+        <v>0.1092754984925182</v>
       </c>
       <c r="P9">
-        <v>0.2180335146480345</v>
+        <v>0.1092754984925182</v>
       </c>
       <c r="Q9">
-        <v>0.2519076913484445</v>
+        <v>2.501257241230222</v>
       </c>
       <c r="R9">
-        <v>2.267169222136</v>
+        <v>22.511315171072</v>
       </c>
       <c r="S9">
-        <v>0.001072870754015158</v>
+        <v>0.004351226773640327</v>
       </c>
       <c r="T9">
-        <v>0.001072870754015158</v>
+        <v>0.004351226773640326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5517096666666667</v>
+        <v>5.478069333333333</v>
       </c>
       <c r="H10">
-        <v>1.655129</v>
+        <v>16.434208</v>
       </c>
       <c r="I10">
-        <v>0.004920668988650958</v>
+        <v>0.03981886913046884</v>
       </c>
       <c r="J10">
-        <v>0.004920668988650959</v>
+        <v>0.03981886913046883</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.182994</v>
+        <v>0.3796343333333334</v>
       </c>
       <c r="N10">
-        <v>0.548982</v>
+        <v>1.138903</v>
       </c>
       <c r="O10">
-        <v>0.0873834669834859</v>
+        <v>0.09085680155383948</v>
       </c>
       <c r="P10">
-        <v>0.0873834669834859</v>
+        <v>0.09085680155383949</v>
       </c>
       <c r="Q10">
-        <v>0.100959558742</v>
+        <v>2.079663199313778</v>
       </c>
       <c r="R10">
-        <v>0.908636028678</v>
+        <v>18.716968793824</v>
       </c>
       <c r="S10">
-        <v>0.000429985116106444</v>
+        <v>0.003617815090685312</v>
       </c>
       <c r="T10">
-        <v>0.000429985116106444</v>
+        <v>0.003617815090685312</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7021506666666667</v>
+        <v>1.120690333333333</v>
       </c>
       <c r="H11">
-        <v>2.106452</v>
+        <v>3.362071</v>
       </c>
       <c r="I11">
-        <v>0.006262444215817491</v>
+        <v>0.008146049092012497</v>
       </c>
       <c r="J11">
-        <v>0.006262444215817492</v>
+        <v>0.008146049092012496</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.454560333333333</v>
+        <v>3.342152</v>
       </c>
       <c r="N11">
-        <v>4.363681</v>
+        <v>10.026456</v>
       </c>
       <c r="O11">
-        <v>0.6945830183684797</v>
+        <v>0.7998676999536424</v>
       </c>
       <c r="P11">
-        <v>0.6945830183684797</v>
+        <v>0.7998676999536425</v>
       </c>
       <c r="Q11">
-        <v>1.021320507756889</v>
+        <v>3.745517438930667</v>
       </c>
       <c r="R11">
-        <v>9.191884569812</v>
+        <v>33.70965695037599</v>
       </c>
       <c r="S11">
-        <v>0.00434978740578674</v>
+        <v>0.006515761550937493</v>
       </c>
       <c r="T11">
-        <v>0.004349787405786741</v>
+        <v>0.006515761550937493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7021506666666667</v>
+        <v>1.120690333333333</v>
       </c>
       <c r="H12">
-        <v>2.106452</v>
+        <v>3.362071</v>
       </c>
       <c r="I12">
-        <v>0.006262444215817491</v>
+        <v>0.008146049092012497</v>
       </c>
       <c r="J12">
-        <v>0.006262444215817492</v>
+        <v>0.008146049092012496</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4565946666666667</v>
+        <v>0.4565946666666666</v>
       </c>
       <c r="N12">
         <v>1.369784</v>
       </c>
       <c r="O12">
-        <v>0.2180335146480345</v>
+        <v>0.1092754984925182</v>
       </c>
       <c r="P12">
-        <v>0.2180335146480345</v>
+        <v>0.1092754984925182</v>
       </c>
       <c r="Q12">
-        <v>0.3205982495964445</v>
+        <v>0.5117012291848889</v>
       </c>
       <c r="R12">
-        <v>2.885384246368</v>
+        <v>4.605311062664</v>
       </c>
       <c r="S12">
-        <v>0.001365422722661942</v>
+        <v>0.0008901635752741908</v>
       </c>
       <c r="T12">
-        <v>0.001365422722661942</v>
+        <v>0.0008901635752741907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7021506666666667</v>
+        <v>1.120690333333333</v>
       </c>
       <c r="H13">
-        <v>2.106452</v>
+        <v>3.362071</v>
       </c>
       <c r="I13">
-        <v>0.006262444215817491</v>
+        <v>0.008146049092012497</v>
       </c>
       <c r="J13">
-        <v>0.006262444215817492</v>
+        <v>0.008146049092012496</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.182994</v>
+        <v>0.3796343333333334</v>
       </c>
       <c r="N13">
-        <v>0.548982</v>
+        <v>1.138903</v>
       </c>
       <c r="O13">
-        <v>0.0873834669834859</v>
+        <v>0.09085680155383948</v>
       </c>
       <c r="P13">
-        <v>0.0873834669834859</v>
+        <v>0.09085680155383949</v>
       </c>
       <c r="Q13">
-        <v>0.128489359096</v>
+        <v>0.4254525275681111</v>
       </c>
       <c r="R13">
-        <v>1.156404231864</v>
+        <v>3.829072748113</v>
       </c>
       <c r="S13">
-        <v>0.00054723408736881</v>
+        <v>0.0007401239658008138</v>
       </c>
       <c r="T13">
-        <v>0.0005472340873688101</v>
+        <v>0.0007401239658008136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.743591</v>
+        <v>1.284086333333333</v>
       </c>
       <c r="H14">
-        <v>8.230772999999999</v>
+        <v>3.852259</v>
       </c>
       <c r="I14">
-        <v>0.02446994128779425</v>
+        <v>0.009333738320561039</v>
       </c>
       <c r="J14">
-        <v>0.02446994128779425</v>
+        <v>0.009333738320561037</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.454560333333333</v>
+        <v>3.342152</v>
       </c>
       <c r="N14">
-        <v>4.363681</v>
+        <v>10.026456</v>
       </c>
       <c r="O14">
-        <v>0.6945830183684797</v>
+        <v>0.7998676999536424</v>
       </c>
       <c r="P14">
-        <v>0.6945830183684797</v>
+        <v>0.7998676999536425</v>
       </c>
       <c r="Q14">
-        <v>3.990718639490333</v>
+        <v>4.291611707122667</v>
       </c>
       <c r="R14">
-        <v>35.916467755413</v>
+        <v>38.624505364104</v>
       </c>
       <c r="S14">
-        <v>0.01699640567897561</v>
+        <v>0.007465755802436331</v>
       </c>
       <c r="T14">
-        <v>0.01699640567897561</v>
+        <v>0.00746575580243633</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.743591</v>
+        <v>1.284086333333333</v>
       </c>
       <c r="H15">
-        <v>8.230772999999999</v>
+        <v>3.852259</v>
       </c>
       <c r="I15">
-        <v>0.02446994128779425</v>
+        <v>0.009333738320561039</v>
       </c>
       <c r="J15">
-        <v>0.02446994128779425</v>
+        <v>0.009333738320561037</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.4565946666666667</v>
+        <v>0.4565946666666666</v>
       </c>
       <c r="N15">
         <v>1.369784</v>
       </c>
       <c r="O15">
-        <v>0.2180335146480345</v>
+        <v>0.1092754984925182</v>
       </c>
       <c r="P15">
-        <v>0.2180335146480345</v>
+        <v>0.1092754984925182</v>
       </c>
       <c r="Q15">
-        <v>1.252709018114667</v>
+        <v>0.5863069713395556</v>
       </c>
       <c r="R15">
-        <v>11.274381163032</v>
+        <v>5.276762742055999</v>
       </c>
       <c r="S15">
-        <v>0.005335267302208831</v>
+        <v>0.001019948907778027</v>
       </c>
       <c r="T15">
-        <v>0.005335267302208831</v>
+        <v>0.001019948907778027</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.743591</v>
+        <v>1.284086333333333</v>
       </c>
       <c r="H16">
-        <v>8.230772999999999</v>
+        <v>3.852259</v>
       </c>
       <c r="I16">
-        <v>0.02446994128779425</v>
+        <v>0.009333738320561039</v>
       </c>
       <c r="J16">
-        <v>0.02446994128779425</v>
+        <v>0.009333738320561037</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.182994</v>
+        <v>0.3796343333333334</v>
       </c>
       <c r="N16">
-        <v>0.548982</v>
+        <v>1.138903</v>
       </c>
       <c r="O16">
-        <v>0.0873834669834859</v>
+        <v>0.09085680155383948</v>
       </c>
       <c r="P16">
-        <v>0.0873834669834859</v>
+        <v>0.09085680155383949</v>
       </c>
       <c r="Q16">
-        <v>0.502060691454</v>
+        <v>0.4874832590974445</v>
       </c>
       <c r="R16">
-        <v>4.518546223085999</v>
+        <v>4.387349331877</v>
       </c>
       <c r="S16">
-        <v>0.002138268306609807</v>
+        <v>0.0008480336103466813</v>
       </c>
       <c r="T16">
-        <v>0.002138268306609807</v>
+        <v>0.0008480336103466813</v>
       </c>
     </row>
   </sheetData>
